--- a/hoo-goa-chu-im.xlsx
+++ b/hoo-goa-chu-im.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/ho-lok-oe-chu-im/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63687B-C840-6640-9E02-C8CE1D877A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5A20D-1C68-084E-AEFC-1089E0C6591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80800" yWindow="2300" windowWidth="22280" windowHeight="18260" xr2:uid="{7A257F91-0534-0F45-BC1E-63B6C7ADF788}"/>
+    <workbookView xWindow="-80800" yWindow="2300" windowWidth="26820" windowHeight="18260" activeTab="5" xr2:uid="{7A257F91-0534-0F45-BC1E-63B6C7ADF788}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="10" r:id="rId1"/>
+    <sheet name="閩拼拼音" sheetId="50" r:id="rId1"/>
+    <sheet name="台羅拼音" sheetId="49" r:id="rId2"/>
+    <sheet name="白話字拼音" sheetId="48" r:id="rId3"/>
+    <sheet name="方音符號注音" sheetId="47" r:id="rId4"/>
+    <sheet name="十五音注音" sheetId="46" r:id="rId5"/>
+    <sheet name="漢字注音表" sheetId="45" r:id="rId6"/>
+    <sheet name="字庫表" sheetId="44" r:id="rId7"/>
+    <sheet name="缺字表" sheetId="43" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母對照表">'[1]十五音-韻母'!$B$5:$R$54</definedName>
@@ -45,7 +53,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="362">
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p&gt;</t>
+  </si>
   <si>
     <t>昔人已乘黃鶴去，</t>
   </si>
@@ -69,6 +86,1060 @@
   </si>
   <si>
     <t>日暮鄉關何處是？</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>昔</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>黃</t>
+  </si>
+  <si>
+    <t>鶴</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>樓</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>復</t>
+  </si>
+  <si>
+    <t>返</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>悠</t>
+  </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>歷</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>芳</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>萋</t>
+  </si>
+  <si>
+    <t>鸚</t>
+  </si>
+  <si>
+    <t>鵡</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>暮</t>
+  </si>
+  <si>
+    <t>鄉</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>煙</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>使</t>
+  </si>
+  <si>
+    <t>愁</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>jin5</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>sik4</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>qi2</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>tsiat4</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sing5</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>sing7</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>hok8</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>khi3</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>tshu2</t>
+  </si>
+  <si>
+    <t>tei7</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>khong1</t>
+  </si>
+  <si>
+    <t>khong2</t>
+  </si>
+  <si>
+    <t>khong3</t>
+  </si>
+  <si>
+    <t>qi5</t>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>qit4</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>hiu1</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>hoo2</t>
+  </si>
+  <si>
+    <t>hu1</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>hok4</t>
+  </si>
+  <si>
+    <t>hiu7</t>
+  </si>
+  <si>
+    <t>huan2</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>pik8</t>
+  </si>
+  <si>
+    <t>hun5</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>qin5</t>
+  </si>
+  <si>
+    <t>tshian1</t>
+  </si>
+  <si>
+    <t>tsai3</t>
+  </si>
+  <si>
+    <t>tsai7</t>
+  </si>
+  <si>
+    <t>qiu1</t>
+  </si>
+  <si>
+    <t>tsing5</t>
+  </si>
+  <si>
+    <t>tshuan1</t>
+  </si>
+  <si>
+    <t>lik8</t>
+  </si>
+  <si>
+    <t>han3</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>qiang5</t>
+  </si>
+  <si>
+    <t>iang</t>
+  </si>
+  <si>
+    <t>si7</t>
+  </si>
+  <si>
+    <t>hong1</t>
+  </si>
+  <si>
+    <t>tsho2</t>
+  </si>
+  <si>
+    <t>sei1</t>
+  </si>
+  <si>
+    <t>tshei1</t>
+  </si>
+  <si>
+    <t>qing1</t>
+  </si>
+  <si>
+    <t>bu2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>tsiu1</t>
+  </si>
+  <si>
+    <t>jit8</t>
+  </si>
+  <si>
+    <t>boo7</t>
+  </si>
+  <si>
+    <t>hiang1</t>
+  </si>
+  <si>
+    <t>hiang3</t>
+  </si>
+  <si>
+    <t>kuan1</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ho5</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ho7</t>
+  </si>
+  <si>
+    <t>tshi2</t>
+  </si>
+  <si>
+    <t>tshi3</t>
+  </si>
+  <si>
+    <t>qian1</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>pho1</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>kang1</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>siang7</t>
+  </si>
+  <si>
+    <t>siang2</t>
+  </si>
+  <si>
+    <t>su2</t>
+  </si>
+  <si>
+    <t>su3</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>iat</t>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾五入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鶴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;地&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;稽七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公一去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾四英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公四喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;返&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經八邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅一出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆三曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩一英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;川&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀一出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經八柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;漢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;姜五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;稽一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鸚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經一英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩一曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾八入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;暮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鄉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;姜一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;關&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅一英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高一頗&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;江一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;姜七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;使&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='zhu_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鶴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;地&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄟ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;返&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;川&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;漢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄟ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鸚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;暮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鄉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;關&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;使&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jǐn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; í&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sěng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǒng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鶴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;地&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tēi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lǒ͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;返&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pe̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǔn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chài&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; iu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chěng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;川&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhoan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;le̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;漢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hàn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ǐang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鸚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; eng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji̍t&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;暮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bō͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鄉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;關&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pho&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;使&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;地&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tē&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lǒo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;返&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;húan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsài&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsǐng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;川&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshuan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;se&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鸚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ing&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsiu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;暮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;關&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kuan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzín&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鶴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hók&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;地&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dê&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lóo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yīt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hōk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;返&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǔan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bík&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hún&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cīan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zài&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yiū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zíng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;川&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cūan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lík&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;漢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hàn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yíang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sē&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鸚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzít&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;暮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鄉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;關&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gūan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yīan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pō&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gāng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;使&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>tshiu5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩五出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhǐu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshǐu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -127,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +1213,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5463,10 +6537,3658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B89E0-47A7-4C45-B6A3-1F027E3FC9EA}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DB4247-B155-8C4B-AACF-A8E53729B1F2}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08B402-0188-0340-AA3A-26CADE9BF3BE}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF834FA7-FAC8-E94D-A7B2-DB0A6D079EAC}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4DCEDC-A426-BF46-A656-3AFE01CC02A5}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B3745-0DB0-3744-B53E-EF6B23304DEB}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="46">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="46">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="46">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="46">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="46">
+      <c r="A37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="46">
+      <c r="A38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="46">
+      <c r="A47" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="46">
+      <c r="A56" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="46">
+      <c r="A57" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="46">
+      <c r="A66" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="46">
+      <c r="A75" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E470D45-520E-5D4D-8870-294A05FFD760}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>9661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>71</v>
+      </c>
+      <c r="G20">
+        <v>8887</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6264658-35CC-0640-92AF-A6C5957CF96C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB773C73-ACD7-E94E-A3C5-36685C878E38}">
   <dimension ref="A1:A340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5477,12 +10199,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5490,12 +10212,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -5503,12 +10225,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -5516,12 +10238,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
